--- a/members_export.xlsx
+++ b/members_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,44 +458,214 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1312000</t>
+          <t>2310164</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>台南女中</t>
+          <t>台南一中</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rnmeow</t>
+          <t>saovichi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310453</t>
+          <t>1311357</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>家齊中學</t>
+          <t>台南女中</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>gooddbanana</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2310143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>台南一中</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mushroom_owo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2310176</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>台南一中</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xiaobaoyizhiwaizhenjun_26469</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1311158</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>台南女中</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tang._.0613</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1311300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>台南女中</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hsinping.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2310528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>台南一中</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mengchen._.0122</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1311220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>台南女中</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>zhenganting</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2310467</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>台南一中</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>warriors.30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2310257</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>台南一中</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>rnmeow</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2310453</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>台南一中</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>a.meow_0112</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2310476</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>台南一中</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wang_74559</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2310007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>台南一中</t>
         </is>
